--- a/biology/Botanique/Alliance_des_crus_bourgeois_du_Médoc/Alliance_des_crus_bourgeois_du_Médoc.xlsx
+++ b/biology/Botanique/Alliance_des_crus_bourgeois_du_Médoc/Alliance_des_crus_bourgeois_du_Médoc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alliance_des_crus_bourgeois_du_M%C3%A9doc</t>
+          <t>Alliance_des_crus_bourgeois_du_Médoc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Alliance des crus bourgeois du Médoc est un syndicat de producteurs de vin de Bordeaux regroupant la majorité des crus bourgeois du Médoc distingués par le classement de 2003. Le but de L’Alliance (depuis mars 2004 présidée par Thierry Gardinier du château Phélan Ségur) est la promotion collective des membres et la surveillance des règles du syndicat.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alliance_des_crus_bourgeois_du_M%C3%A9doc</t>
+          <t>Alliance_des_crus_bourgeois_du_Médoc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Critères de labellisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les crus bourgeois ont établi une charte de qualité regroupant plusieurs critères :
 l’expédition en vrac est interdite ;
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alliance_des_crus_bourgeois_du_M%C3%A9doc</t>
+          <t>Alliance_des_crus_bourgeois_du_Médoc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,9 +569,11 @@
           <t>Annulation du classement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le classement est applicable à compter du millésime 2003 et révisable tous les 12 ans. Cependant, certains domaines reclassés ont engagé un recours en justice, et la cour administrative d'appel de Bordeaux, le 27 février 2007, a définitivement annulé le classement de 2003[1],[2], laissant l'Alliance des crus bourgeois dans l'incertitude.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le classement est applicable à compter du millésime 2003 et révisable tous les 12 ans. Cependant, certains domaines reclassés ont engagé un recours en justice, et la cour administrative d'appel de Bordeaux, le 27 février 2007, a définitivement annulé le classement de 2003 laissant l'Alliance des crus bourgeois dans l'incertitude.
 Un nouveau classement est établi le 20 février 2020 pour cinq ans (millésimes 2018 à 2022). 
 </t>
         </is>
